--- a/individual_results/avey/13.xlsx
+++ b/individual_results/avey/13.xlsx
@@ -576,7 +576,7 @@
         <v>0.5</v>
       </c>
       <c r="J2" t="n">
-        <v>0.6</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="K2" t="n">
         <v>1</v>
@@ -594,7 +594,7 @@
         <v>1</v>
       </c>
       <c r="P2" t="n">
-        <v>0.5</v>
+        <v>0.375</v>
       </c>
       <c r="Q2" t="n">
         <v>0.4285714285714285</v>
@@ -649,7 +649,7 @@
         <v>0.2</v>
       </c>
       <c r="J3" t="n">
-        <v>0.6</v>
+        <v>0.4</v>
       </c>
       <c r="K3" t="n">
         <v>0.4</v>
@@ -667,7 +667,7 @@
         <v>0.4</v>
       </c>
       <c r="P3" t="n">
-        <v>0.8</v>
+        <v>0.6</v>
       </c>
       <c r="Q3" t="n">
         <v>0.6</v>
@@ -722,7 +722,7 @@
         <v>0.2857142857142858</v>
       </c>
       <c r="J4" t="n">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="K4" t="n">
         <v>0.5714285714285715</v>
@@ -740,7 +740,7 @@
         <v>0.5714285714285715</v>
       </c>
       <c r="P4" t="n">
-        <v>0.6153846153846154</v>
+        <v>0.4615384615384615</v>
       </c>
       <c r="Q4" t="n">
         <v>0.5</v>
@@ -795,7 +795,7 @@
         <v>0.2272727272727273</v>
       </c>
       <c r="J5" t="n">
-        <v>0.6</v>
+        <v>0.4347826086956522</v>
       </c>
       <c r="K5" t="n">
         <v>0.4545454545454545</v>
@@ -813,7 +813,7 @@
         <v>0.4545454545454545</v>
       </c>
       <c r="P5" t="n">
-        <v>0.7142857142857143</v>
+        <v>0.5357142857142857</v>
       </c>
       <c r="Q5" t="n">
         <v>0.5555555555555556</v>
@@ -868,7 +868,7 @@
         <v>0.6791866504595295</v>
       </c>
       <c r="J6" t="n">
-        <v>0.9174860051583612</v>
+        <v>0.7759490202022451</v>
       </c>
       <c r="K6" t="n">
         <v>0.7759490202022451</v>
@@ -886,7 +886,7 @@
         <v>0.5818837935265742</v>
       </c>
       <c r="P6" t="n">
-        <v>0.6605255138583941</v>
+        <v>0.6532224315953884</v>
       </c>
       <c r="Q6" t="n">
         <v>0.6096638701810315</v>
@@ -1229,7 +1229,7 @@
         <v>0.4</v>
       </c>
       <c r="J11" t="n">
-        <v>1</v>
+        <v>0.6</v>
       </c>
       <c r="K11" t="n">
         <v>0.4</v>
